--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lavinia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ui\Facultate\Sem6\Verificarea si validarea\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA83BE8-8B76-427B-BDA5-67C7449366AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63266181-8698-4663-BB83-CEB754D473D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="79">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -179,9 +179,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>nu se face functionalitatea de modificare</t>
-  </si>
-  <si>
     <t>C06</t>
   </si>
   <si>
@@ -264,6 +261,18 @@
   </si>
   <si>
     <t>SonarLint</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>yes,  Model-View-Controller</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>clasa Main nu e intuitiv plasata in pachetul view</t>
   </si>
 </sst>
 </file>
@@ -455,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -485,6 +494,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -526,18 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,19 +877,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>28</v>
@@ -894,7 +902,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="17">
@@ -905,50 +913,40 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="E4" s="29"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="31"/>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -965,16 +963,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="38">
+      <c r="B10" s="23">
         <v>1</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -994,17 +992,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="38">
+      <c r="B12" s="23">
         <f t="shared" ref="B12:B25" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="25" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1155,8 +1153,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,19 +1175,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>28</v>
@@ -1202,7 +1200,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="17">
@@ -1213,38 +1211,38 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1293,23 +1291,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
@@ -1481,19 +1481,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>28</v>
@@ -1506,7 +1506,7 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="17">
@@ -1517,38 +1517,38 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1569,13 +1569,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1584,13 +1584,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1599,13 +1599,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1798,9 +1798,9 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -1817,24 +1817,24 @@
     <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>28</v>
@@ -1843,58 +1843,49 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="22" t="s">
         <v>31</v>
       </c>
       <c r="J3" s="17">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="30"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="35"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="26"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="20"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1911,94 +1902,94 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2008,7 +1999,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2159,11 +2150,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="18" t="s">
         <v>33</v>
       </c>
